--- a/Budget Estimate -Servo Motor  Driver .xlsx
+++ b/Budget Estimate -Servo Motor  Driver .xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n01178447\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abiodun\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DA9F3F-EC39-4A03-84A7-7476292C165A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>Adafruit 16-Channel 12-bit PWM/Servo Driver - I2C interface - PCA9685</t>
   </si>
@@ -159,9 +155,6 @@
     <t>Pending</t>
   </si>
   <si>
-    <t>AJ Hobby</t>
-  </si>
-  <si>
     <t>Ada368</t>
   </si>
   <si>
@@ -199,14 +192,45 @@
   </si>
   <si>
     <t>Humber Prototype Lab</t>
+  </si>
+  <si>
+    <t>40-Pin Breakable Pin Header</t>
+  </si>
+  <si>
+    <t>CONPH-100400</t>
+  </si>
+  <si>
+    <t>CONHD-330060</t>
+  </si>
+  <si>
+    <t>6 Pin Stackable Header</t>
+  </si>
+  <si>
+    <t>CONPH-402749</t>
+  </si>
+  <si>
+    <t>Stackable Header for Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Tax 13%</t>
+  </si>
+  <si>
+    <t>Creatron Inc</t>
+  </si>
+  <si>
+    <t>Pre-Tax Total</t>
+  </si>
+  <si>
+    <t>A1 Elecronics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -291,16 +315,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -308,8 +332,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -321,17 +345,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -613,7 +639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -981,7 +1007,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O6" r:id="rId1"/>
+    <hyperlink ref="O6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -989,14 +1015,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1038,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1024,26 +1050,26 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -1296,10 +1322,10 @@
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>23</v>
@@ -1319,16 +1345,16 @@
         <v>2.6</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14">
@@ -1347,11 +1373,11 @@
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1359,20 +1385,113 @@
       <c r="G17" s="15"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="16">
-        <f>SUM(G7:G17)</f>
-        <v>329.92</v>
-      </c>
-      <c r="H18" s="12"/>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15">
+        <f>E18*F18</f>
+        <v>0.85</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2</v>
+      </c>
+      <c r="G19" s="15">
+        <f>E19*F19</f>
+        <v>1.72</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14">
+        <v>5.65</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15">
+        <f>E20*F20</f>
+        <v>5.65</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="16">
+        <f>SUM(G7:G20)</f>
+        <v>338.14000000000004</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="19">
+        <f>G21*0.13</f>
+        <v>43.958200000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="20">
+        <f>G21+G22</f>
+        <v>382.09820000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
